--- a/capstone1/data/daily-sales.xlsx
+++ b/capstone1/data/daily-sales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzereski/Documents/workspace/springboard/capstone1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031E366C-1535-7B4A-88CD-ECB8C760D3D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7060EFC7-D610-5C44-BC28-057808F4908D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,18 +16,11 @@
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
   <si>
     <t>date</t>
   </si>
@@ -47,6 +40,12 @@
     <t>sales</t>
   </si>
   <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>avg_sale</t>
+  </si>
+  <si>
     <t>2017-11-17</t>
   </si>
   <si>
@@ -930,6 +929,99 @@
   </si>
   <si>
     <t>2018-09-07</t>
+  </si>
+  <si>
+    <t>2018-09-08</t>
+  </si>
+  <si>
+    <t>2018-09-09</t>
+  </si>
+  <si>
+    <t>2018-09-10</t>
+  </si>
+  <si>
+    <t>2018-09-11</t>
+  </si>
+  <si>
+    <t>2018-09-12</t>
+  </si>
+  <si>
+    <t>2018-09-13</t>
+  </si>
+  <si>
+    <t>2018-09-14</t>
+  </si>
+  <si>
+    <t>2018-09-15</t>
+  </si>
+  <si>
+    <t>2018-09-16</t>
+  </si>
+  <si>
+    <t>2018-09-17</t>
+  </si>
+  <si>
+    <t>2018-09-18</t>
+  </si>
+  <si>
+    <t>2018-09-19</t>
+  </si>
+  <si>
+    <t>2018-09-20</t>
+  </si>
+  <si>
+    <t>2018-09-21</t>
+  </si>
+  <si>
+    <t>2018-09-22</t>
+  </si>
+  <si>
+    <t>2018-09-23</t>
+  </si>
+  <si>
+    <t>2018-09-24</t>
+  </si>
+  <si>
+    <t>2018-09-25</t>
+  </si>
+  <si>
+    <t>2018-09-26</t>
+  </si>
+  <si>
+    <t>2018-09-27</t>
+  </si>
+  <si>
+    <t>2018-09-28</t>
+  </si>
+  <si>
+    <t>2018-09-29</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-10-01</t>
+  </si>
+  <si>
+    <t>2018-10-02</t>
+  </si>
+  <si>
+    <t>2018-10-03</t>
+  </si>
+  <si>
+    <t>2018-10-04</t>
+  </si>
+  <si>
+    <t>2018-10-05</t>
+  </si>
+  <si>
+    <t>2018-10-06</t>
+  </si>
+  <si>
+    <t>2018-10-07</t>
+  </si>
+  <si>
+    <t>2018-10-08</t>
   </si>
 </sst>
 </file>
@@ -1269,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F296"/>
+  <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="F261" sqref="F261"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1280,7 +1372,7 @@
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1299,10 +1391,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2017</v>
@@ -1317,12 +1415,18 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>333.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>348.62999999999988</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>31.693636363636362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2017</v>
@@ -1337,12 +1441,18 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>1286.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1334.38</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>83.398750000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2017</v>
@@ -1357,12 +1467,18 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>175.73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>153.93</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>76.965000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2017</v>
@@ -1377,12 +1493,18 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>488.42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>512.08000000000004</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>170.69333333333341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2017</v>
@@ -1399,10 +1521,16 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -1417,12 +1545,18 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <v>1163.3900000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1132.31</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>141.53874999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2017</v>
@@ -1439,10 +1573,16 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2017</v>
@@ -1457,12 +1597,18 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>2429.6999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2529.5299999999988</v>
+      </c>
+      <c r="G9">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>74.397941176470553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>2017</v>
@@ -1477,12 +1623,18 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <v>1546.38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1545.76</v>
+      </c>
+      <c r="G10">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>67.206956521739144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -1497,12 +1649,18 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>423.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>449.46</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>149.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>2017</v>
@@ -1517,12 +1675,18 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>622.79999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>658.01</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>34.632105263157897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>2017</v>
@@ -1537,12 +1701,18 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>449.49000000000012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>459.19999999999987</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>91.839999999999989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>2017</v>
@@ -1557,12 +1727,18 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <v>162.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>157.22</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>39.305000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>2017</v>
@@ -1577,12 +1753,18 @@
         <v>4</v>
       </c>
       <c r="F15">
-        <v>449.74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>477.41</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>79.568333333333342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>2017</v>
@@ -1597,12 +1779,18 @@
         <v>5</v>
       </c>
       <c r="F16">
-        <v>519.96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>549.15</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>54.914999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>2017</v>
@@ -1617,12 +1805,18 @@
         <v>6</v>
       </c>
       <c r="F17">
-        <v>1121.8699999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1456.53</v>
+      </c>
+      <c r="G17">
+        <v>21</v>
+      </c>
+      <c r="H17">
+        <v>69.358571428571437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>2017</v>
@@ -1637,12 +1831,18 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>2017</v>
@@ -1657,12 +1857,18 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>538.93000000000006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>530.2299999999999</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>66.278749999999988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>2017</v>
@@ -1677,12 +1883,18 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>582.11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>623.55999999999995</v>
+      </c>
+      <c r="G20">
+        <v>12</v>
+      </c>
+      <c r="H20">
+        <v>51.963333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -1697,12 +1909,18 @@
         <v>3</v>
       </c>
       <c r="F21">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>713.2700000000001</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>71.327000000000012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>2017</v>
@@ -1717,12 +1935,18 @@
         <v>4</v>
       </c>
       <c r="F22">
-        <v>149.78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>159.13999999999999</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>39.784999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>2017</v>
@@ -1737,12 +1961,18 @@
         <v>5</v>
       </c>
       <c r="F23">
-        <v>511.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>682.46</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>85.307500000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>2017</v>
@@ -1757,12 +1987,18 @@
         <v>6</v>
       </c>
       <c r="F24">
-        <v>887.13000000000011</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1049.52</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <v>116.6133333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>2017</v>
@@ -1777,12 +2013,18 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>457.33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>518.98</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>74.14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>2017</v>
@@ -1797,12 +2039,18 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>689.88000000000011</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>877.16000000000008</v>
+      </c>
+      <c r="G26">
+        <v>17</v>
+      </c>
+      <c r="H26">
+        <v>51.597647058823533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>2017</v>
@@ -1817,12 +2065,18 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>287.31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>298.64999999999998</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>74.662499999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>2017</v>
@@ -1837,12 +2091,18 @@
         <v>3</v>
       </c>
       <c r="F28">
-        <v>519.85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>533.79</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>48.526363636363627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>2017</v>
@@ -1857,12 +2117,18 @@
         <v>4</v>
       </c>
       <c r="F29">
-        <v>1675.16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1743.28</v>
+      </c>
+      <c r="G29">
+        <v>21</v>
+      </c>
+      <c r="H29">
+        <v>83.01333333333335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>2017</v>
@@ -1877,12 +2143,18 @@
         <v>5</v>
       </c>
       <c r="F30">
-        <v>849.22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>972.32</v>
+      </c>
+      <c r="G30">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>60.77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>2017</v>
@@ -1897,12 +2169,18 @@
         <v>6</v>
       </c>
       <c r="F31">
-        <v>1428.82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1540.67</v>
+      </c>
+      <c r="G31">
+        <v>21</v>
+      </c>
+      <c r="H31">
+        <v>73.365238095238098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>2017</v>
@@ -1917,12 +2195,18 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>986.93000000000018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1063.9100000000001</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+      <c r="H32">
+        <v>88.659166666666678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>2017</v>
@@ -1937,12 +2221,18 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>483.56000000000012</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>509.11999999999989</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>72.731428571428566</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>2017</v>
@@ -1957,12 +2247,18 @@
         <v>2</v>
       </c>
       <c r="F34">
-        <v>1188.18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1278.46</v>
+      </c>
+      <c r="G34">
+        <v>16</v>
+      </c>
+      <c r="H34">
+        <v>79.903750000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>2017</v>
@@ -1977,12 +2273,18 @@
         <v>3</v>
       </c>
       <c r="F35">
-        <v>880.45000000000027</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1066.76</v>
+      </c>
+      <c r="G35">
+        <v>19</v>
+      </c>
+      <c r="H35">
+        <v>56.145263157894739</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>2017</v>
@@ -1997,12 +2299,18 @@
         <v>4</v>
       </c>
       <c r="F36">
-        <v>832.00000000000011</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1051.96</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
+      <c r="H36">
+        <v>70.13066666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>2017</v>
@@ -2017,12 +2325,18 @@
         <v>5</v>
       </c>
       <c r="F37">
-        <v>1187.22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1616.73</v>
+      </c>
+      <c r="G37">
+        <v>31</v>
+      </c>
+      <c r="H37">
+        <v>52.152580645161287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>2017</v>
@@ -2037,12 +2351,18 @@
         <v>6</v>
       </c>
       <c r="F38">
-        <v>1052.26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1238.68</v>
+      </c>
+      <c r="G38">
+        <v>19</v>
+      </c>
+      <c r="H38">
+        <v>65.193684210526314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>2017</v>
@@ -2057,12 +2377,18 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>614.96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>719.81000000000006</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>59.984166666666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>2017</v>
@@ -2079,10 +2405,16 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>2017</v>
@@ -2097,12 +2429,18 @@
         <v>2</v>
       </c>
       <c r="F41">
-        <v>1017.83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1034.9100000000001</v>
+      </c>
+      <c r="G41">
+        <v>11</v>
+      </c>
+      <c r="H41">
+        <v>94.082727272727283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>2017</v>
@@ -2117,12 +2455,18 @@
         <v>3</v>
       </c>
       <c r="F42">
-        <v>1808.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1751.07</v>
+      </c>
+      <c r="G42">
+        <v>16</v>
+      </c>
+      <c r="H42">
+        <v>109.441875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>2017</v>
@@ -2137,12 +2481,18 @@
         <v>4</v>
       </c>
       <c r="F43">
-        <v>1367.43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1357.54</v>
+      </c>
+      <c r="G43">
+        <v>11</v>
+      </c>
+      <c r="H43">
+        <v>123.4127272727273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>2017</v>
@@ -2157,12 +2507,18 @@
         <v>5</v>
       </c>
       <c r="F44">
-        <v>815.14999999999986</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>849.22</v>
+      </c>
+      <c r="G44">
+        <v>13</v>
+      </c>
+      <c r="H44">
+        <v>65.324615384615385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>2017</v>
@@ -2177,12 +2533,18 @@
         <v>6</v>
       </c>
       <c r="F45">
-        <v>2085.34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2083.4499999999998</v>
+      </c>
+      <c r="G45">
+        <v>18</v>
+      </c>
+      <c r="H45">
+        <v>115.74722222222221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>2017</v>
@@ -2199,10 +2561,16 @@
       <c r="F46">
         <v>132.94999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>132.94999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>2018</v>
@@ -2219,10 +2587,16 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>2018</v>
@@ -2237,12 +2611,18 @@
         <v>2</v>
       </c>
       <c r="F48">
-        <v>2204.2800000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2186.71</v>
+      </c>
+      <c r="G48">
+        <v>10</v>
+      </c>
+      <c r="H48">
+        <v>218.67099999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>2018</v>
@@ -2257,12 +2637,18 @@
         <v>3</v>
       </c>
       <c r="F49">
-        <v>1363.55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1365.82</v>
+      </c>
+      <c r="G49">
+        <v>11</v>
+      </c>
+      <c r="H49">
+        <v>124.16545454545459</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>2018</v>
@@ -2279,10 +2665,16 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>2018</v>
@@ -2297,12 +2689,18 @@
         <v>5</v>
       </c>
       <c r="F51">
-        <v>243.64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>255.03</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>63.7575</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>2018</v>
@@ -2317,12 +2715,18 @@
         <v>6</v>
       </c>
       <c r="F52">
-        <v>588.99000000000012</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>607.84999999999991</v>
+      </c>
+      <c r="G52">
+        <v>8</v>
+      </c>
+      <c r="H52">
+        <v>75.981249999999989</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <v>2018</v>
@@ -2337,12 +2741,18 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>179.74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>189.35</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>63.116666666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
         <v>2018</v>
@@ -2357,12 +2767,18 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>560.84999999999991</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>480.42</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>120.105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>2018</v>
@@ -2379,10 +2795,16 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
         <v>2018</v>
@@ -2399,10 +2821,16 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>2018</v>
@@ -2417,12 +2845,18 @@
         <v>4</v>
       </c>
       <c r="F57">
-        <v>95.9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70.92</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>23.64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>2018</v>
@@ -2439,10 +2873,16 @@
       <c r="F58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>2018</v>
@@ -2457,12 +2897,18 @@
         <v>6</v>
       </c>
       <c r="F59">
-        <v>1080.23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1114.9100000000001</v>
+      </c>
+      <c r="G59">
+        <v>13</v>
+      </c>
+      <c r="H59">
+        <v>85.762307692307701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>2018</v>
@@ -2479,10 +2925,16 @@
       <c r="F60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>2018</v>
@@ -2497,12 +2949,18 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>729.33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>606.00000000000011</v>
+      </c>
+      <c r="G61">
+        <v>9</v>
+      </c>
+      <c r="H61">
+        <v>67.333333333333343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>2018</v>
@@ -2517,12 +2975,18 @@
         <v>2</v>
       </c>
       <c r="F62">
-        <v>258.86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
         <v>2018</v>
@@ -2537,12 +3001,18 @@
         <v>3</v>
       </c>
       <c r="F63">
-        <v>393.83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>409.64</v>
+      </c>
+      <c r="G63">
+        <v>9</v>
+      </c>
+      <c r="H63">
+        <v>45.515555555555551</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
         <v>2018</v>
@@ -2557,12 +3027,18 @@
         <v>4</v>
       </c>
       <c r="F64">
-        <v>398.59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>391.41</v>
+      </c>
+      <c r="G64">
+        <v>7</v>
+      </c>
+      <c r="H64">
+        <v>55.91571428571428</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
         <v>2018</v>
@@ -2577,12 +3053,18 @@
         <v>5</v>
       </c>
       <c r="F65">
-        <v>190.04</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>199.92</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+      <c r="H65">
+        <v>33.32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
         <v>2018</v>
@@ -2597,12 +3079,18 @@
         <v>6</v>
       </c>
       <c r="F66">
-        <v>319.86999999999989</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>315.83</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+      <c r="H66">
+        <v>52.638333333333328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
         <v>2018</v>
@@ -2619,10 +3107,16 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
         <v>2018</v>
@@ -2637,12 +3131,18 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>232.09</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>239.72</v>
+      </c>
+      <c r="G68">
+        <v>6</v>
+      </c>
+      <c r="H68">
+        <v>39.95333333333334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
         <v>2018</v>
@@ -2657,12 +3157,18 @@
         <v>2</v>
       </c>
       <c r="F69">
-        <v>357.75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>378.29</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <v>94.572499999999991</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>2018</v>
@@ -2677,12 +3183,18 @@
         <v>3</v>
       </c>
       <c r="F70">
-        <v>380.42999999999989</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>378.71</v>
+      </c>
+      <c r="G70">
+        <v>6</v>
+      </c>
+      <c r="H70">
+        <v>63.118333333333339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
         <v>2018</v>
@@ -2697,12 +3209,18 @@
         <v>4</v>
       </c>
       <c r="F71">
-        <v>185.88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>197.5</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+      <c r="H71">
+        <v>39.499999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
         <v>2018</v>
@@ -2717,12 +3235,18 @@
         <v>5</v>
       </c>
       <c r="F72">
-        <v>441.55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>464.53</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>154.84333333333331</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
         <v>2018</v>
@@ -2737,12 +3261,18 @@
         <v>6</v>
       </c>
       <c r="F73">
-        <v>191.8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>199.1</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>39.820000000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
         <v>2018</v>
@@ -2759,10 +3289,16 @@
       <c r="F74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
         <v>2018</v>
@@ -2777,12 +3313,18 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>233.15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>247.73</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>61.93249999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
         <v>2018</v>
@@ -2797,12 +3339,18 @@
         <v>2</v>
       </c>
       <c r="F76">
-        <v>335.35</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>352.57000000000011</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>88.142500000000013</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
         <v>2018</v>
@@ -2817,12 +3365,18 @@
         <v>3</v>
       </c>
       <c r="F77">
-        <v>809.46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>832.08</v>
+      </c>
+      <c r="G77">
+        <v>10</v>
+      </c>
+      <c r="H77">
+        <v>83.207999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
         <v>2018</v>
@@ -2837,12 +3391,18 @@
         <v>4</v>
       </c>
       <c r="F78">
-        <v>101.8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105.04</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>35.013333333333328</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>2018</v>
@@ -2857,12 +3417,18 @@
         <v>5</v>
       </c>
       <c r="F79">
-        <v>534.80000000000007</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>556.53</v>
+      </c>
+      <c r="G79">
+        <v>10</v>
+      </c>
+      <c r="H79">
+        <v>55.652999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
         <v>2018</v>
@@ -2877,12 +3443,18 @@
         <v>6</v>
       </c>
       <c r="F80">
-        <v>762.21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>746.33999999999992</v>
+      </c>
+      <c r="G80">
+        <v>8</v>
+      </c>
+      <c r="H80">
+        <v>93.29249999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
         <v>2018</v>
@@ -2899,10 +3471,16 @@
       <c r="F81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>2018</v>
@@ -2917,12 +3495,18 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>61.83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>65.7</v>
+      </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
+      <c r="H82">
+        <v>16.425000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
         <v>2018</v>
@@ -2937,12 +3521,18 @@
         <v>2</v>
       </c>
       <c r="F83">
-        <v>247.64</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>261.70999999999998</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>65.427500000000009</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>2018</v>
@@ -2957,12 +3547,18 @@
         <v>3</v>
       </c>
       <c r="F84">
-        <v>418.49999999999989</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>366.87</v>
+      </c>
+      <c r="G84">
+        <v>5</v>
+      </c>
+      <c r="H84">
+        <v>73.373999999999995</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
         <v>2018</v>
@@ -2977,12 +3573,18 @@
         <v>4</v>
       </c>
       <c r="F85">
-        <v>802.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>828.91000000000008</v>
+      </c>
+      <c r="G85">
+        <v>9</v>
+      </c>
+      <c r="H85">
+        <v>92.101111111111123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
         <v>2018</v>
@@ -2997,12 +3599,18 @@
         <v>5</v>
       </c>
       <c r="F86">
-        <v>135.54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>138.96</v>
+      </c>
+      <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="H86">
+        <v>34.74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
         <v>2018</v>
@@ -3017,12 +3625,18 @@
         <v>6</v>
       </c>
       <c r="F87">
-        <v>2207.56</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2216.81</v>
+      </c>
+      <c r="G87">
+        <v>18</v>
+      </c>
+      <c r="H87">
+        <v>123.1561111111111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
         <v>2018</v>
@@ -3037,12 +3651,18 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>50.85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>54.03</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>54.03</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
         <v>2018</v>
@@ -3057,12 +3677,18 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>227.68</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>241.91</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>80.63666666666667</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
         <v>2018</v>
@@ -3077,12 +3703,18 @@
         <v>2</v>
       </c>
       <c r="F90">
-        <v>742.94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>708.12</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>236.04</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
         <v>2018</v>
@@ -3097,12 +3729,18 @@
         <v>3</v>
       </c>
       <c r="F91">
-        <v>1771.82</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1642.91</v>
+      </c>
+      <c r="G91">
+        <v>20</v>
+      </c>
+      <c r="H91">
+        <v>82.145500000000013</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
         <v>2018</v>
@@ -3117,12 +3755,18 @@
         <v>4</v>
       </c>
       <c r="F92">
-        <v>159.58000000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>165.5</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>55.166666666666657</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
         <v>2018</v>
@@ -3137,12 +3781,18 @@
         <v>5</v>
       </c>
       <c r="F93">
-        <v>833.77</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>853.19999999999993</v>
+      </c>
+      <c r="G93">
+        <v>8</v>
+      </c>
+      <c r="H93">
+        <v>106.65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
         <v>2018</v>
@@ -3157,12 +3807,18 @@
         <v>6</v>
       </c>
       <c r="F94">
-        <v>467.29</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>482.18999999999988</v>
+      </c>
+      <c r="G94">
+        <v>11</v>
+      </c>
+      <c r="H94">
+        <v>43.835454545454539</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
         <v>2018</v>
@@ -3177,12 +3833,18 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>527.66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>241.17</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>120.58499999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>2018</v>
@@ -3197,12 +3859,18 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>1113.79</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1134.43</v>
+      </c>
+      <c r="G96">
+        <v>12</v>
+      </c>
+      <c r="H96">
+        <v>94.535833333333343</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>2018</v>
@@ -3217,12 +3885,18 @@
         <v>2</v>
       </c>
       <c r="F97">
-        <v>736.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>693.71</v>
+      </c>
+      <c r="G97">
+        <v>6</v>
+      </c>
+      <c r="H97">
+        <v>115.6183333333333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
         <v>2018</v>
@@ -3237,12 +3911,18 @@
         <v>3</v>
       </c>
       <c r="F98">
-        <v>2393.869999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2366.5100000000002</v>
+      </c>
+      <c r="G98">
+        <v>13</v>
+      </c>
+      <c r="H98">
+        <v>182.03923076923081</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>2018</v>
@@ -3257,12 +3937,18 @@
         <v>4</v>
       </c>
       <c r="F99">
-        <v>78.699999999999989</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>82.75</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>27.583333333333329</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>2018</v>
@@ -3277,12 +3963,19 @@
         <v>5</v>
       </c>
       <c r="F100">
-        <v>1438.49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <f>1550.27-525-525</f>
+        <v>500.27</v>
+      </c>
+      <c r="G100">
+        <v>6</v>
+      </c>
+      <c r="H100">
+        <v>258.37833333333327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
         <v>2018</v>
@@ -3297,12 +3990,19 @@
         <v>6</v>
       </c>
       <c r="F101">
-        <v>1423.38</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <f>1474.06-750</f>
+        <v>724.06</v>
+      </c>
+      <c r="G101">
+        <v>11</v>
+      </c>
+      <c r="H101">
+        <v>134.00545454545451</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>2018</v>
@@ -3319,10 +4019,16 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>2018</v>
@@ -3337,12 +4043,18 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>632.44000000000005</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>646.91999999999996</v>
+      </c>
+      <c r="G103">
+        <v>6</v>
+      </c>
+      <c r="H103">
+        <v>107.82</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>2018</v>
@@ -3357,12 +4069,18 @@
         <v>2</v>
       </c>
       <c r="F104">
-        <v>471.17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>487.5</v>
+      </c>
+      <c r="G104">
+        <v>8</v>
+      </c>
+      <c r="H104">
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B105">
         <v>2018</v>
@@ -3377,12 +4095,18 @@
         <v>3</v>
       </c>
       <c r="F105">
-        <v>654.83000000000004</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>539.83999999999992</v>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+      <c r="H105">
+        <v>107.968</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106">
         <v>2018</v>
@@ -3397,12 +4121,18 @@
         <v>4</v>
       </c>
       <c r="F106">
-        <v>810.79000000000008</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>521.12</v>
+      </c>
+      <c r="G106">
+        <v>5</v>
+      </c>
+      <c r="H106">
+        <v>104.224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B107">
         <v>2018</v>
@@ -3417,12 +4147,18 @@
         <v>5</v>
       </c>
       <c r="F107">
-        <v>516.33000000000004</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>538.19999999999993</v>
+      </c>
+      <c r="G107">
+        <v>6</v>
+      </c>
+      <c r="H107">
+        <v>89.699999999999989</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B108">
         <v>2018</v>
@@ -3437,12 +4173,18 @@
         <v>6</v>
       </c>
       <c r="F108">
-        <v>307.48</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>270.97000000000003</v>
+      </c>
+      <c r="G108">
+        <v>7</v>
+      </c>
+      <c r="H108">
+        <v>38.709999999999987</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B109">
         <v>2018</v>
@@ -3459,10 +4201,16 @@
       <c r="F109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110">
         <v>2018</v>
@@ -3477,12 +4225,18 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <v>319.64</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>339.62</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <v>113.20666666666671</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B111">
         <v>2018</v>
@@ -3497,12 +4251,18 @@
         <v>2</v>
       </c>
       <c r="F111">
-        <v>346.19</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>364.7</v>
+      </c>
+      <c r="G111">
+        <v>5</v>
+      </c>
+      <c r="H111">
+        <v>72.94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B112">
         <v>2018</v>
@@ -3517,12 +4277,18 @@
         <v>3</v>
       </c>
       <c r="F112">
-        <v>162.65</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>172.81</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <v>86.405000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113">
         <v>2018</v>
@@ -3537,12 +4303,18 @@
         <v>4</v>
       </c>
       <c r="F113">
-        <v>175.73</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>174.1</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>58.033333333333339</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B114">
         <v>2018</v>
@@ -3557,12 +4329,18 @@
         <v>5</v>
       </c>
       <c r="F114">
-        <v>386.1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>391.84</v>
+      </c>
+      <c r="G114">
+        <v>8</v>
+      </c>
+      <c r="H114">
+        <v>48.98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B115">
         <v>2018</v>
@@ -3577,12 +4355,18 @@
         <v>6</v>
       </c>
       <c r="F115">
-        <v>1015.38</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1031.75</v>
+      </c>
+      <c r="G115">
+        <v>8</v>
+      </c>
+      <c r="H115">
+        <v>128.96875</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B116">
         <v>2018</v>
@@ -3599,10 +4383,16 @@
       <c r="F116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B117">
         <v>2018</v>
@@ -3617,12 +4407,18 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>620.59999999999991</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>653.57999999999993</v>
+      </c>
+      <c r="G117">
+        <v>9</v>
+      </c>
+      <c r="H117">
+        <v>72.61999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B118">
         <v>2018</v>
@@ -3639,10 +4435,16 @@
       <c r="F118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B119">
         <v>2018</v>
@@ -3657,12 +4459,18 @@
         <v>3</v>
       </c>
       <c r="F119">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.27</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B120">
         <v>2018</v>
@@ -3677,12 +4485,18 @@
         <v>4</v>
       </c>
       <c r="F120">
-        <v>365.08</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>382.58</v>
+      </c>
+      <c r="G120">
+        <v>8</v>
+      </c>
+      <c r="H120">
+        <v>47.822499999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B121">
         <v>2018</v>
@@ -3697,12 +4511,18 @@
         <v>5</v>
       </c>
       <c r="F121">
-        <v>204.61</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>210.42</v>
+      </c>
+      <c r="G121">
+        <v>7</v>
+      </c>
+      <c r="H121">
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B122">
         <v>2018</v>
@@ -3717,12 +4537,18 @@
         <v>6</v>
       </c>
       <c r="F122">
-        <v>1504.97</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1439.14</v>
+      </c>
+      <c r="G122">
+        <v>20</v>
+      </c>
+      <c r="H122">
+        <v>71.957000000000008</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B123">
         <v>2018</v>
@@ -3737,12 +4563,18 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>181.84</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>155.43</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>155.43</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B124">
         <v>2018</v>
@@ -3757,12 +4589,18 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>170.49</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="G124">
+        <v>5</v>
+      </c>
+      <c r="H124">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B125">
         <v>2018</v>
@@ -3777,12 +4615,18 @@
         <v>2</v>
       </c>
       <c r="F125">
-        <v>388.81</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>391.5</v>
+      </c>
+      <c r="G125">
+        <v>4</v>
+      </c>
+      <c r="H125">
+        <v>97.875</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B126">
         <v>2018</v>
@@ -3797,12 +4641,18 @@
         <v>3</v>
       </c>
       <c r="F126">
-        <v>86.15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>88.65</v>
+      </c>
+      <c r="G126">
+        <v>2</v>
+      </c>
+      <c r="H126">
+        <v>44.325000000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B127">
         <v>2018</v>
@@ -3817,12 +4667,18 @@
         <v>4</v>
       </c>
       <c r="F127">
-        <v>340.55</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>356.83</v>
+      </c>
+      <c r="G127">
+        <v>5</v>
+      </c>
+      <c r="H127">
+        <v>71.366</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B128">
         <v>2018</v>
@@ -3837,12 +4693,18 @@
         <v>5</v>
       </c>
       <c r="F128">
-        <v>995.74</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>997.68999999999994</v>
+      </c>
+      <c r="G128">
+        <v>8</v>
+      </c>
+      <c r="H128">
+        <v>124.71125000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B129">
         <v>2018</v>
@@ -3857,12 +4719,18 @@
         <v>6</v>
       </c>
       <c r="F129">
-        <v>882.77</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>853.15</v>
+      </c>
+      <c r="G129">
+        <v>10</v>
+      </c>
+      <c r="H129">
+        <v>85.314999999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B130">
         <v>2018</v>
@@ -3877,12 +4745,18 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>426.95</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>323.98</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="H130">
+        <v>107.9933333333333</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B131">
         <v>2018</v>
@@ -3897,12 +4771,18 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>95.1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101.05</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131">
+        <v>50.525000000000013</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B132">
         <v>2018</v>
@@ -3917,12 +4797,18 @@
         <v>2</v>
       </c>
       <c r="F132">
-        <v>230.58</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <v>243.4</v>
+      </c>
+      <c r="G132">
+        <v>5</v>
+      </c>
+      <c r="H132">
+        <v>48.68</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B133">
         <v>2018</v>
@@ -3937,12 +4823,18 @@
         <v>3</v>
       </c>
       <c r="F133">
-        <v>363.55</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>270.47000000000003</v>
+      </c>
+      <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133">
+        <v>135.23500000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B134">
         <v>2018</v>
@@ -3957,12 +4849,18 @@
         <v>4</v>
       </c>
       <c r="F134">
-        <v>294.06999999999988</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>359.12999999999988</v>
+      </c>
+      <c r="G134">
+        <v>9</v>
+      </c>
+      <c r="H134">
+        <v>39.903333333333329</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B135">
         <v>2018</v>
@@ -3977,12 +4875,18 @@
         <v>5</v>
       </c>
       <c r="F135">
-        <v>474.29</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>475.19</v>
+      </c>
+      <c r="G135">
+        <v>5</v>
+      </c>
+      <c r="H135">
+        <v>95.037999999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B136">
         <v>2018</v>
@@ -3997,12 +4901,18 @@
         <v>6</v>
       </c>
       <c r="F136">
-        <v>566.76</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <v>546.36</v>
+      </c>
+      <c r="G136">
+        <v>11</v>
+      </c>
+      <c r="H136">
+        <v>49.669090909090912</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B137">
         <v>2018</v>
@@ -4019,10 +4929,16 @@
       <c r="F137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B138">
         <v>2018</v>
@@ -4037,12 +4953,18 @@
         <v>1</v>
       </c>
       <c r="F138">
-        <v>200.14</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183.58</v>
+      </c>
+      <c r="G138">
+        <v>4</v>
+      </c>
+      <c r="H138">
+        <v>45.895000000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B139">
         <v>2018</v>
@@ -4057,12 +4979,18 @@
         <v>2</v>
       </c>
       <c r="F139">
-        <v>511.3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+        <v>593.2600000000001</v>
+      </c>
+      <c r="G139">
+        <v>9</v>
+      </c>
+      <c r="H139">
+        <v>65.917777777777786</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B140">
         <v>2018</v>
@@ -4077,12 +5005,18 @@
         <v>3</v>
       </c>
       <c r="F140">
-        <v>148.9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+        <v>158.21</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>158.21</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B141">
         <v>2018</v>
@@ -4097,12 +5031,18 @@
         <v>4</v>
       </c>
       <c r="F141">
-        <v>378.6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+        <v>364.53</v>
+      </c>
+      <c r="G141">
+        <v>5</v>
+      </c>
+      <c r="H141">
+        <v>72.906000000000006</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B142">
         <v>2018</v>
@@ -4117,12 +5057,18 @@
         <v>5</v>
       </c>
       <c r="F142">
-        <v>218.59</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+        <v>232.26</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+      <c r="H142">
+        <v>77.42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B143">
         <v>2018</v>
@@ -4137,12 +5083,18 @@
         <v>6</v>
       </c>
       <c r="F143">
-        <v>2313.59</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2265.52</v>
+      </c>
+      <c r="G143">
+        <v>16</v>
+      </c>
+      <c r="H143">
+        <v>141.595</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B144">
         <v>2018</v>
@@ -4157,12 +5109,18 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>119.85</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59.95</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>59.95</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B145">
         <v>2018</v>
@@ -4177,12 +5135,18 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>258.08</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+        <v>260.70999999999998</v>
+      </c>
+      <c r="G145">
+        <v>5</v>
+      </c>
+      <c r="H145">
+        <v>52.142000000000003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B146">
         <v>2018</v>
@@ -4197,12 +5161,18 @@
         <v>2</v>
       </c>
       <c r="F146">
-        <v>122.6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+        <v>130.26</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+      <c r="H146">
+        <v>65.13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B147">
         <v>2018</v>
@@ -4217,12 +5187,18 @@
         <v>3</v>
       </c>
       <c r="F147">
-        <v>193.27</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+        <v>218.45</v>
+      </c>
+      <c r="G147">
+        <v>4</v>
+      </c>
+      <c r="H147">
+        <v>54.612499999999997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B148">
         <v>2018</v>
@@ -4237,12 +5213,18 @@
         <v>4</v>
       </c>
       <c r="F148">
-        <v>459.79</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+        <v>482.1</v>
+      </c>
+      <c r="G148">
+        <v>7</v>
+      </c>
+      <c r="H148">
+        <v>68.871428571428567</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B149">
         <v>2018</v>
@@ -4257,12 +5239,18 @@
         <v>5</v>
       </c>
       <c r="F149">
-        <v>567.98000000000013</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+        <v>573.84</v>
+      </c>
+      <c r="G149">
+        <v>8</v>
+      </c>
+      <c r="H149">
+        <v>71.73</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B150">
         <v>2018</v>
@@ -4277,12 +5265,18 @@
         <v>6</v>
       </c>
       <c r="F150">
-        <v>926.32999999999981</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+        <v>908.88000000000011</v>
+      </c>
+      <c r="G150">
+        <v>13</v>
+      </c>
+      <c r="H150">
+        <v>69.913846153846166</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B151">
         <v>2018</v>
@@ -4299,10 +5293,16 @@
       <c r="F151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B152">
         <v>2018</v>
@@ -4317,12 +5317,18 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>680.99</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+        <v>553.39</v>
+      </c>
+      <c r="G152">
+        <v>4</v>
+      </c>
+      <c r="H152">
+        <v>138.3475</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B153">
         <v>2018</v>
@@ -4337,12 +5343,18 @@
         <v>2</v>
       </c>
       <c r="F153">
-        <v>569.43000000000006</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+        <v>592.20999999999992</v>
+      </c>
+      <c r="G153">
+        <v>7</v>
+      </c>
+      <c r="H153">
+        <v>84.601428571428556</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B154">
         <v>2018</v>
@@ -4357,12 +5369,18 @@
         <v>3</v>
       </c>
       <c r="F154">
-        <v>1295.3399999999999</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1312.9</v>
+      </c>
+      <c r="G154">
+        <v>8</v>
+      </c>
+      <c r="H154">
+        <v>164.11250000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B155">
         <v>2018</v>
@@ -4377,12 +5395,18 @@
         <v>4</v>
       </c>
       <c r="F155">
-        <v>484.13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+        <v>527.62</v>
+      </c>
+      <c r="G155">
+        <v>8</v>
+      </c>
+      <c r="H155">
+        <v>65.952500000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B156">
         <v>2018</v>
@@ -4397,12 +5421,18 @@
         <v>5</v>
       </c>
       <c r="F156">
-        <v>1486.02</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1518.71</v>
+      </c>
+      <c r="G156">
+        <v>16</v>
+      </c>
+      <c r="H156">
+        <v>94.919375000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B157">
         <v>2018</v>
@@ -4417,12 +5447,18 @@
         <v>6</v>
       </c>
       <c r="F157">
-        <v>290.3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+        <v>303.76</v>
+      </c>
+      <c r="G157">
+        <v>7</v>
+      </c>
+      <c r="H157">
+        <v>43.394285714285722</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B158">
         <v>2018</v>
@@ -4439,10 +5475,16 @@
       <c r="F158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B159">
         <v>2018</v>
@@ -4457,12 +5499,18 @@
         <v>1</v>
       </c>
       <c r="F159">
-        <v>416.56000000000012</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+        <v>433.04</v>
+      </c>
+      <c r="G159">
+        <v>5</v>
+      </c>
+      <c r="H159">
+        <v>86.60799999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B160">
         <v>2018</v>
@@ -4477,12 +5525,18 @@
         <v>2</v>
       </c>
       <c r="F160">
-        <v>267.20999999999998</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+        <v>272.77999999999997</v>
+      </c>
+      <c r="G160">
+        <v>5</v>
+      </c>
+      <c r="H160">
+        <v>54.555999999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B161">
         <v>2018</v>
@@ -4497,12 +5551,18 @@
         <v>3</v>
       </c>
       <c r="F161">
-        <v>844.61000000000013</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+        <v>848.03999999999985</v>
+      </c>
+      <c r="G161">
+        <v>11</v>
+      </c>
+      <c r="H161">
+        <v>77.09454545454544</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B162">
         <v>2018</v>
@@ -4517,12 +5577,18 @@
         <v>4</v>
       </c>
       <c r="F162">
-        <v>1268.5899999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1324.23</v>
+      </c>
+      <c r="G162">
+        <v>10</v>
+      </c>
+      <c r="H162">
+        <v>132.423</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B163">
         <v>2018</v>
@@ -4537,12 +5603,18 @@
         <v>5</v>
       </c>
       <c r="F163">
-        <v>919.18000000000006</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+        <v>879.27</v>
+      </c>
+      <c r="G163">
+        <v>9</v>
+      </c>
+      <c r="H163">
+        <v>97.696666666666658</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B164">
         <v>2018</v>
@@ -4557,12 +5629,18 @@
         <v>6</v>
       </c>
       <c r="F164">
-        <v>2455.1999999999998</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2391.4499999999998</v>
+      </c>
+      <c r="G164">
+        <v>21</v>
+      </c>
+      <c r="H164">
+        <v>113.87857142857141</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B165">
         <v>2018</v>
@@ -4579,10 +5657,16 @@
       <c r="F165">
         <v>49</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B166">
         <v>2018</v>
@@ -4597,12 +5681,18 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <v>439.8</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452.92</v>
+      </c>
+      <c r="G166">
+        <v>6</v>
+      </c>
+      <c r="H166">
+        <v>75.486666666666665</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B167">
         <v>2018</v>
@@ -4617,12 +5707,18 @@
         <v>2</v>
       </c>
       <c r="F167">
-        <v>775.97</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+        <v>811.49</v>
+      </c>
+      <c r="G167">
+        <v>8</v>
+      </c>
+      <c r="H167">
+        <v>101.43625</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B168">
         <v>2018</v>
@@ -4637,12 +5733,18 @@
         <v>3</v>
       </c>
       <c r="F168">
-        <v>1512.91</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1538.49</v>
+      </c>
+      <c r="G168">
+        <v>16</v>
+      </c>
+      <c r="H168">
+        <v>96.155625000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B169">
         <v>2018</v>
@@ -4657,12 +5759,18 @@
         <v>4</v>
       </c>
       <c r="F169">
-        <v>407.41</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+        <v>416.98</v>
+      </c>
+      <c r="G169">
+        <v>11</v>
+      </c>
+      <c r="H169">
+        <v>37.907272727272733</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B170">
         <v>2018</v>
@@ -4677,12 +5785,18 @@
         <v>5</v>
       </c>
       <c r="F170">
-        <v>1354.53</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1352.76</v>
+      </c>
+      <c r="G170">
+        <v>17</v>
+      </c>
+      <c r="H170">
+        <v>79.574117647058827</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B171">
         <v>2018</v>
@@ -4697,12 +5811,18 @@
         <v>6</v>
       </c>
       <c r="F171">
-        <v>3512.38</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3278.8199999999988</v>
+      </c>
+      <c r="G171">
+        <v>32</v>
+      </c>
+      <c r="H171">
+        <v>102.46312500000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B172">
         <v>2018</v>
@@ -4719,10 +5839,16 @@
       <c r="F172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B173">
         <v>2018</v>
@@ -4737,12 +5863,18 @@
         <v>1</v>
       </c>
       <c r="F173">
-        <v>1378.38</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1281.17</v>
+      </c>
+      <c r="G173">
+        <v>11</v>
+      </c>
+      <c r="H173">
+        <v>116.47</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B174">
         <v>2018</v>
@@ -4757,12 +5889,18 @@
         <v>2</v>
       </c>
       <c r="F174">
-        <v>460.51999999999992</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+        <v>484.38</v>
+      </c>
+      <c r="G174">
+        <v>8</v>
+      </c>
+      <c r="H174">
+        <v>60.547499999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B175">
         <v>2018</v>
@@ -4777,12 +5915,18 @@
         <v>3</v>
       </c>
       <c r="F175">
-        <v>647.58000000000004</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+        <v>561.04999999999995</v>
+      </c>
+      <c r="G175">
+        <v>10</v>
+      </c>
+      <c r="H175">
+        <v>56.104999999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B176">
         <v>2018</v>
@@ -4797,12 +5941,18 @@
         <v>4</v>
       </c>
       <c r="F176">
-        <v>492.17</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+        <v>463.66</v>
+      </c>
+      <c r="G176">
+        <v>10</v>
+      </c>
+      <c r="H176">
+        <v>46.366</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B177">
         <v>2018</v>
@@ -4817,12 +5967,18 @@
         <v>5</v>
       </c>
       <c r="F177">
-        <v>1028.32</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1175.26</v>
+      </c>
+      <c r="G177">
+        <v>12</v>
+      </c>
+      <c r="H177">
+        <v>97.938333333333333</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B178">
         <v>2018</v>
@@ -4837,12 +5993,18 @@
         <v>6</v>
       </c>
       <c r="F178">
-        <v>1776.73</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1810.4</v>
+      </c>
+      <c r="G178">
+        <v>18</v>
+      </c>
+      <c r="H178">
+        <v>100.5777777777778</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B179">
         <v>2018</v>
@@ -4859,10 +6021,16 @@
       <c r="F179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B180">
         <v>2018</v>
@@ -4877,12 +6045,18 @@
         <v>1</v>
       </c>
       <c r="F180">
-        <v>249.91</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+        <v>284.23</v>
+      </c>
+      <c r="G180">
+        <v>8</v>
+      </c>
+      <c r="H180">
+        <v>35.528750000000002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B181">
         <v>2018</v>
@@ -4897,12 +6071,18 @@
         <v>2</v>
       </c>
       <c r="F181">
-        <v>585.57999999999993</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+        <v>735.59</v>
+      </c>
+      <c r="G181">
+        <v>11</v>
+      </c>
+      <c r="H181">
+        <v>66.871818181818185</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B182">
         <v>2018</v>
@@ -4917,12 +6097,18 @@
         <v>3</v>
       </c>
       <c r="F182">
-        <v>848.0100000000001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+        <v>858.58000000000015</v>
+      </c>
+      <c r="G182">
+        <v>9</v>
+      </c>
+      <c r="H182">
+        <v>95.39777777777779</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B183">
         <v>2018</v>
@@ -4937,12 +6123,18 @@
         <v>4</v>
       </c>
       <c r="F183">
-        <v>749.69</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+        <v>766.45</v>
+      </c>
+      <c r="G183">
+        <v>9</v>
+      </c>
+      <c r="H183">
+        <v>85.161111111111111</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B184">
         <v>2018</v>
@@ -4957,12 +6149,18 @@
         <v>5</v>
       </c>
       <c r="F184">
-        <v>398.83</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+        <v>421.39</v>
+      </c>
+      <c r="G184">
+        <v>8</v>
+      </c>
+      <c r="H184">
+        <v>52.673750000000013</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B185">
         <v>2018</v>
@@ -4977,12 +6175,18 @@
         <v>6</v>
       </c>
       <c r="F185">
-        <v>686.01</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+        <v>687.08000000000015</v>
+      </c>
+      <c r="G185">
+        <v>12</v>
+      </c>
+      <c r="H185">
+        <v>57.256666666666682</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B186">
         <v>2018</v>
@@ -4999,10 +6203,16 @@
       <c r="F186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B187">
         <v>2018</v>
@@ -5017,12 +6227,18 @@
         <v>1</v>
       </c>
       <c r="F187">
-        <v>289.14999999999998</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+        <v>225.28</v>
+      </c>
+      <c r="G187">
+        <v>5</v>
+      </c>
+      <c r="H187">
+        <v>45.055999999999997</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B188">
         <v>2018</v>
@@ -5037,12 +6253,18 @@
         <v>2</v>
       </c>
       <c r="F188">
-        <v>1012.64</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1040.49</v>
+      </c>
+      <c r="G188">
+        <v>8</v>
+      </c>
+      <c r="H188">
+        <v>130.06125</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B189">
         <v>2018</v>
@@ -5057,12 +6279,18 @@
         <v>3</v>
       </c>
       <c r="F189">
-        <v>639.83000000000004</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+        <v>632.46999999999991</v>
+      </c>
+      <c r="G189">
+        <v>7</v>
+      </c>
+      <c r="H189">
+        <v>90.352857142857133</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B190">
         <v>2018</v>
@@ -5077,12 +6305,18 @@
         <v>4</v>
       </c>
       <c r="F190">
-        <v>3085.9899999999989</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3083.93</v>
+      </c>
+      <c r="G190">
+        <v>10</v>
+      </c>
+      <c r="H190">
+        <v>308.39299999999997</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B191">
         <v>2018</v>
@@ -5097,12 +6331,18 @@
         <v>5</v>
       </c>
       <c r="F191">
-        <v>1107.45</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1053.83</v>
+      </c>
+      <c r="G191">
+        <v>11</v>
+      </c>
+      <c r="H191">
+        <v>95.802727272727267</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B192">
         <v>2018</v>
@@ -5117,12 +6357,18 @@
         <v>6</v>
       </c>
       <c r="F192">
-        <v>720.36000000000013</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+        <v>720.1600000000002</v>
+      </c>
+      <c r="G192">
+        <v>13</v>
+      </c>
+      <c r="H192">
+        <v>55.396923076923088</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B193">
         <v>2018</v>
@@ -5139,10 +6385,16 @@
       <c r="F193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B194">
         <v>2018</v>
@@ -5157,12 +6409,18 @@
         <v>1</v>
       </c>
       <c r="F194">
-        <v>846.74</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+        <v>770.11000000000013</v>
+      </c>
+      <c r="G194">
+        <v>5</v>
+      </c>
+      <c r="H194">
+        <v>154.02199999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B195">
         <v>2018</v>
@@ -5177,12 +6435,18 @@
         <v>2</v>
       </c>
       <c r="F195">
-        <v>259.55999999999989</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+        <v>244.88</v>
+      </c>
+      <c r="G195">
+        <v>9</v>
+      </c>
+      <c r="H195">
+        <v>27.20888888888889</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B196">
         <v>2018</v>
@@ -5197,12 +6461,18 @@
         <v>3</v>
       </c>
       <c r="F196">
-        <v>751.04</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+        <v>758.68000000000018</v>
+      </c>
+      <c r="G196">
+        <v>10</v>
+      </c>
+      <c r="H196">
+        <v>75.868000000000023</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B197">
         <v>2018</v>
@@ -5217,12 +6487,18 @@
         <v>4</v>
       </c>
       <c r="F197">
-        <v>840.76</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+        <v>818.11</v>
+      </c>
+      <c r="G197">
+        <v>9</v>
+      </c>
+      <c r="H197">
+        <v>90.901111111111106</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B198">
         <v>2018</v>
@@ -5237,12 +6513,18 @@
         <v>5</v>
       </c>
       <c r="F198">
-        <v>1116.8800000000001</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1120.8900000000001</v>
+      </c>
+      <c r="G198">
+        <v>12</v>
+      </c>
+      <c r="H198">
+        <v>93.407500000000027</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B199">
         <v>2018</v>
@@ -5257,12 +6539,18 @@
         <v>6</v>
       </c>
       <c r="F199">
-        <v>1584.73</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1546.23</v>
+      </c>
+      <c r="G199">
+        <v>17</v>
+      </c>
+      <c r="H199">
+        <v>90.954705882352954</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B200">
         <v>2018</v>
@@ -5279,10 +6567,16 @@
       <c r="F200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B201">
         <v>2018</v>
@@ -5297,12 +6591,18 @@
         <v>1</v>
       </c>
       <c r="F201">
-        <v>1265.17</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1302.31</v>
+      </c>
+      <c r="G201">
+        <v>7</v>
+      </c>
+      <c r="H201">
+        <v>186.04428571428571</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B202">
         <v>2018</v>
@@ -5317,12 +6617,18 @@
         <v>2</v>
       </c>
       <c r="F202">
-        <v>669.35</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+        <v>680.7700000000001</v>
+      </c>
+      <c r="G202">
+        <v>8</v>
+      </c>
+      <c r="H202">
+        <v>85.096250000000012</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B203">
         <v>2018</v>
@@ -5337,12 +6643,18 @@
         <v>3</v>
       </c>
       <c r="F203">
-        <v>543.06999999999994</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+        <v>513.04000000000008</v>
+      </c>
+      <c r="G203">
+        <v>9</v>
+      </c>
+      <c r="H203">
+        <v>57.004444444444452</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B204">
         <v>2018</v>
@@ -5357,12 +6669,18 @@
         <v>4</v>
       </c>
       <c r="F204">
-        <v>708.17999999999984</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+        <v>661.92</v>
+      </c>
+      <c r="G204">
+        <v>14</v>
+      </c>
+      <c r="H204">
+        <v>47.279999999999987</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B205">
         <v>2018</v>
@@ -5377,12 +6695,18 @@
         <v>5</v>
       </c>
       <c r="F205">
-        <v>1329.98</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1163.26</v>
+      </c>
+      <c r="G205">
+        <v>19</v>
+      </c>
+      <c r="H205">
+        <v>61.224210526315822</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B206">
         <v>2018</v>
@@ -5397,12 +6721,18 @@
         <v>6</v>
       </c>
       <c r="F206">
-        <v>1417.19</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1299.8800000000001</v>
+      </c>
+      <c r="G206">
+        <v>21</v>
+      </c>
+      <c r="H206">
+        <v>61.899047619047622</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B207">
         <v>2018</v>
@@ -5419,10 +6749,16 @@
       <c r="F207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B208">
         <v>2018</v>
@@ -5437,12 +6773,18 @@
         <v>1</v>
       </c>
       <c r="F208">
-        <v>1274.32</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1192.97</v>
+      </c>
+      <c r="G208">
+        <v>12</v>
+      </c>
+      <c r="H208">
+        <v>99.414166666666674</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B209">
         <v>2018</v>
@@ -5457,12 +6799,18 @@
         <v>2</v>
       </c>
       <c r="F209">
-        <v>636.15</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+        <v>650.68999999999994</v>
+      </c>
+      <c r="G209">
+        <v>9</v>
+      </c>
+      <c r="H209">
+        <v>72.298888888888882</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B210">
         <v>2018</v>
@@ -5477,12 +6825,18 @@
         <v>3</v>
       </c>
       <c r="F210">
-        <v>1652.27</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1455.01</v>
+      </c>
+      <c r="G210">
+        <v>15</v>
+      </c>
+      <c r="H210">
+        <v>97.000666666666675</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B211">
         <v>2018</v>
@@ -5497,12 +6851,18 @@
         <v>4</v>
       </c>
       <c r="F211">
-        <v>1356.56</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1279</v>
+      </c>
+      <c r="G211">
+        <v>15</v>
+      </c>
+      <c r="H211">
+        <v>85.266666666666652</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B212">
         <v>2018</v>
@@ -5517,12 +6877,18 @@
         <v>5</v>
       </c>
       <c r="F212">
-        <v>1276.33</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1238.1400000000001</v>
+      </c>
+      <c r="G212">
+        <v>17</v>
+      </c>
+      <c r="H212">
+        <v>72.83176470588235</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B213">
         <v>2018</v>
@@ -5537,12 +6903,18 @@
         <v>6</v>
       </c>
       <c r="F213">
-        <v>2273.41</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2169.7600000000002</v>
+      </c>
+      <c r="G213">
+        <v>26</v>
+      </c>
+      <c r="H213">
+        <v>83.452307692307684</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B214">
         <v>2018</v>
@@ -5557,12 +6929,18 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25.84</v>
+      </c>
+      <c r="G214">
+        <v>2</v>
+      </c>
+      <c r="H214">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B215">
         <v>2018</v>
@@ -5577,12 +6955,18 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>1517.19</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1493.64</v>
+      </c>
+      <c r="G215">
+        <v>10</v>
+      </c>
+      <c r="H215">
+        <v>149.364</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B216">
         <v>2018</v>
@@ -5597,12 +6981,18 @@
         <v>2</v>
       </c>
       <c r="F216">
-        <v>1085.47</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1106.08</v>
+      </c>
+      <c r="G216">
+        <v>13</v>
+      </c>
+      <c r="H216">
+        <v>85.083076923076916</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B217">
         <v>2018</v>
@@ -5617,12 +7007,18 @@
         <v>3</v>
       </c>
       <c r="F217">
-        <v>1167.3599999999999</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1189.06</v>
+      </c>
+      <c r="G217">
+        <v>10</v>
+      </c>
+      <c r="H217">
+        <v>118.90600000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B218">
         <v>2018</v>
@@ -5637,12 +7033,18 @@
         <v>4</v>
       </c>
       <c r="F218">
-        <v>342.06</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+        <v>363.06</v>
+      </c>
+      <c r="G218">
+        <v>9</v>
+      </c>
+      <c r="H218">
+        <v>40.340000000000003</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B219">
         <v>2018</v>
@@ -5657,12 +7059,18 @@
         <v>5</v>
       </c>
       <c r="F219">
-        <v>559.44999999999993</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+        <v>433.04</v>
+      </c>
+      <c r="G219">
+        <v>8</v>
+      </c>
+      <c r="H219">
+        <v>54.13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B220">
         <v>2018</v>
@@ -5677,12 +7085,18 @@
         <v>6</v>
       </c>
       <c r="F220">
-        <v>1484.84</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1361.64</v>
+      </c>
+      <c r="G220">
+        <v>16</v>
+      </c>
+      <c r="H220">
+        <v>85.102500000000006</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B221">
         <v>2018</v>
@@ -5697,12 +7111,18 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>145.80000000000001</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+        <v>94.16</v>
+      </c>
+      <c r="G221">
+        <v>3</v>
+      </c>
+      <c r="H221">
+        <v>31.38666666666667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B222">
         <v>2018</v>
@@ -5717,12 +7137,18 @@
         <v>1</v>
       </c>
       <c r="F222">
-        <v>335.51</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+        <v>331.54</v>
+      </c>
+      <c r="G222">
+        <v>6</v>
+      </c>
+      <c r="H222">
+        <v>55.256666666666668</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B223">
         <v>2018</v>
@@ -5737,12 +7163,18 @@
         <v>2</v>
       </c>
       <c r="F223">
-        <v>508.55</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+        <v>501.46</v>
+      </c>
+      <c r="G223">
+        <v>6</v>
+      </c>
+      <c r="H223">
+        <v>83.576666666666668</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B224">
         <v>2018</v>
@@ -5757,12 +7189,18 @@
         <v>3</v>
       </c>
       <c r="F224">
-        <v>1325.58</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1187.27</v>
+      </c>
+      <c r="G224">
+        <v>12</v>
+      </c>
+      <c r="H224">
+        <v>98.939166666666665</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B225">
         <v>2018</v>
@@ -5777,12 +7215,18 @@
         <v>4</v>
       </c>
       <c r="F225">
-        <v>1596.28</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1526.86</v>
+      </c>
+      <c r="G225">
+        <v>11</v>
+      </c>
+      <c r="H225">
+        <v>138.8054545454545</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B226">
         <v>2018</v>
@@ -5797,12 +7241,18 @@
         <v>5</v>
       </c>
       <c r="F226">
-        <v>1214.95</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1061.6199999999999</v>
+      </c>
+      <c r="G226">
+        <v>13</v>
+      </c>
+      <c r="H226">
+        <v>81.663076923076915</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B227">
         <v>2018</v>
@@ -5817,12 +7267,18 @@
         <v>6</v>
       </c>
       <c r="F227">
-        <v>2271.59</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2092.66</v>
+      </c>
+      <c r="G227">
+        <v>17</v>
+      </c>
+      <c r="H227">
+        <v>123.0976470588236</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B228">
         <v>2018</v>
@@ -5837,12 +7293,18 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21.45</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B229">
         <v>2018</v>
@@ -5857,12 +7319,18 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>699.28000000000009</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+        <v>894.5100000000001</v>
+      </c>
+      <c r="G229">
+        <v>11</v>
+      </c>
+      <c r="H229">
+        <v>81.319090909090917</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B230">
         <v>2018</v>
@@ -5877,12 +7345,18 @@
         <v>2</v>
       </c>
       <c r="F230">
-        <v>682.71</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+        <v>658.9899999999999</v>
+      </c>
+      <c r="G230">
+        <v>9</v>
+      </c>
+      <c r="H230">
+        <v>73.221111111111099</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B231">
         <v>2018</v>
@@ -5899,10 +7373,16 @@
       <c r="F231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B232">
         <v>2018</v>
@@ -5917,12 +7397,18 @@
         <v>4</v>
       </c>
       <c r="F232">
-        <v>368.45</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+        <v>367.77</v>
+      </c>
+      <c r="G232">
+        <v>5</v>
+      </c>
+      <c r="H232">
+        <v>73.554000000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B233">
         <v>2018</v>
@@ -5937,12 +7423,18 @@
         <v>5</v>
       </c>
       <c r="F233">
-        <v>2117.79</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2066.23</v>
+      </c>
+      <c r="G233">
+        <v>13</v>
+      </c>
+      <c r="H233">
+        <v>158.94076923076921</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B234">
         <v>2018</v>
@@ -5957,12 +7449,18 @@
         <v>6</v>
       </c>
       <c r="F234">
-        <v>1470.45</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1483.55</v>
+      </c>
+      <c r="G234">
+        <v>12</v>
+      </c>
+      <c r="H234">
+        <v>123.62916666666671</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B235">
         <v>2018</v>
@@ -5979,10 +7477,16 @@
       <c r="F235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B236">
         <v>2018</v>
@@ -5997,12 +7501,18 @@
         <v>1</v>
       </c>
       <c r="F236">
-        <v>822.34000000000015</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+        <v>849.56</v>
+      </c>
+      <c r="G236">
+        <v>9</v>
+      </c>
+      <c r="H236">
+        <v>94.395555555555546</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B237">
         <v>2018</v>
@@ -6017,12 +7527,18 @@
         <v>2</v>
       </c>
       <c r="F237">
-        <v>1683.38</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1385.63</v>
+      </c>
+      <c r="G237">
+        <v>11</v>
+      </c>
+      <c r="H237">
+        <v>125.9663636363636</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238">
         <v>2018</v>
@@ -6037,12 +7553,18 @@
         <v>3</v>
       </c>
       <c r="F238">
-        <v>586.04999999999995</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+        <v>582.47</v>
+      </c>
+      <c r="G238">
+        <v>6</v>
+      </c>
+      <c r="H238">
+        <v>97.078333333333333</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B239">
         <v>2018</v>
@@ -6057,12 +7579,18 @@
         <v>4</v>
       </c>
       <c r="F239">
-        <v>950.72000000000014</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+        <v>990.68999999999994</v>
+      </c>
+      <c r="G239">
+        <v>14</v>
+      </c>
+      <c r="H239">
+        <v>70.763571428571424</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B240">
         <v>2018</v>
@@ -6077,12 +7605,18 @@
         <v>5</v>
       </c>
       <c r="F240">
-        <v>1122.6500000000001</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1113.08</v>
+      </c>
+      <c r="G240">
+        <v>13</v>
+      </c>
+      <c r="H240">
+        <v>85.621538461538478</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B241">
         <v>2018</v>
@@ -6097,12 +7631,18 @@
         <v>6</v>
       </c>
       <c r="F241">
-        <v>2108.420000000001</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2040.96</v>
+      </c>
+      <c r="G241">
+        <v>15</v>
+      </c>
+      <c r="H241">
+        <v>136.06399999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B242">
         <v>2018</v>
@@ -6117,12 +7657,18 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>95.54</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+        <v>77.069999999999993</v>
+      </c>
+      <c r="G242">
+        <v>2</v>
+      </c>
+      <c r="H242">
+        <v>38.534999999999997</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B243">
         <v>2018</v>
@@ -6137,12 +7683,18 @@
         <v>1</v>
       </c>
       <c r="F243">
-        <v>831.37999999999988</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+        <v>821.08</v>
+      </c>
+      <c r="G243">
+        <v>11</v>
+      </c>
+      <c r="H243">
+        <v>74.643636363636361</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B244">
         <v>2018</v>
@@ -6157,12 +7709,18 @@
         <v>2</v>
       </c>
       <c r="F244">
-        <v>899.31999999999994</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+        <v>884.21000000000015</v>
+      </c>
+      <c r="G244">
+        <v>11</v>
+      </c>
+      <c r="H244">
+        <v>80.38272727272728</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B245">
         <v>2018</v>
@@ -6179,10 +7737,16 @@
       <c r="F245">
         <v>141.86000000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G245">
+        <v>2</v>
+      </c>
+      <c r="H245">
+        <v>70.930000000000007</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B246">
         <v>2018</v>
@@ -6197,12 +7761,18 @@
         <v>4</v>
       </c>
       <c r="F246">
-        <v>377.54</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+        <v>349.05</v>
+      </c>
+      <c r="G246">
+        <v>6</v>
+      </c>
+      <c r="H246">
+        <v>58.174999999999997</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B247">
         <v>2018</v>
@@ -6217,12 +7787,18 @@
         <v>5</v>
       </c>
       <c r="F247">
-        <v>1034.57</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+        <v>930.07000000000028</v>
+      </c>
+      <c r="G247">
+        <v>14</v>
+      </c>
+      <c r="H247">
+        <v>66.433571428571454</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B248">
         <v>2018</v>
@@ -6237,12 +7813,18 @@
         <v>6</v>
       </c>
       <c r="F248">
-        <v>1273.71</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1200.77</v>
+      </c>
+      <c r="G248">
+        <v>15</v>
+      </c>
+      <c r="H248">
+        <v>80.051333333333332</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B249">
         <v>2018</v>
@@ -6259,10 +7841,16 @@
       <c r="F249">
         <v>46.95</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>46.95</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B250">
         <v>2018</v>
@@ -6277,12 +7865,18 @@
         <v>1</v>
       </c>
       <c r="F250">
-        <v>2898.15</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2654.39</v>
+      </c>
+      <c r="G250">
+        <v>29</v>
+      </c>
+      <c r="H250">
+        <v>91.530689655172409</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B251">
         <v>2018</v>
@@ -6297,12 +7891,18 @@
         <v>2</v>
       </c>
       <c r="F251">
-        <v>539.08999999999992</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+        <v>483.13</v>
+      </c>
+      <c r="G251">
+        <v>9</v>
+      </c>
+      <c r="H251">
+        <v>53.681111111111107</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B252">
         <v>2018</v>
@@ -6317,12 +7917,18 @@
         <v>3</v>
       </c>
       <c r="F252">
-        <v>701.73000000000013</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+        <v>712.1400000000001</v>
+      </c>
+      <c r="G252">
+        <v>9</v>
+      </c>
+      <c r="H252">
+        <v>79.126666666666679</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B253">
         <v>2018</v>
@@ -6337,12 +7943,18 @@
         <v>4</v>
       </c>
       <c r="F253">
-        <v>582.29</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+        <v>522.75999999999988</v>
+      </c>
+      <c r="G253">
+        <v>6</v>
+      </c>
+      <c r="H253">
+        <v>87.126666666666651</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B254">
         <v>2018</v>
@@ -6357,12 +7969,18 @@
         <v>5</v>
       </c>
       <c r="F254">
-        <v>547.08999999999992</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+        <v>573.56000000000006</v>
+      </c>
+      <c r="G254">
+        <v>8</v>
+      </c>
+      <c r="H254">
+        <v>71.695000000000007</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B255">
         <v>2018</v>
@@ -6377,12 +7995,18 @@
         <v>6</v>
       </c>
       <c r="F255">
-        <v>1084.3599999999999</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+        <v>867.46</v>
+      </c>
+      <c r="G255">
+        <v>11</v>
+      </c>
+      <c r="H255">
+        <v>78.86</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B256">
         <v>2018</v>
@@ -6399,10 +8023,16 @@
       <c r="F256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B257">
         <v>2018</v>
@@ -6417,12 +8047,18 @@
         <v>1</v>
       </c>
       <c r="F257">
-        <v>1038.3599999999999</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1054.97</v>
+      </c>
+      <c r="G257">
+        <v>12</v>
+      </c>
+      <c r="H257">
+        <v>87.914166666666674</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B258">
         <v>2018</v>
@@ -6437,12 +8073,18 @@
         <v>2</v>
       </c>
       <c r="F258">
-        <v>189.69</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+        <v>184.89</v>
+      </c>
+      <c r="G258">
+        <v>3</v>
+      </c>
+      <c r="H258">
+        <v>61.63</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B259">
         <v>2018</v>
@@ -6457,12 +8099,18 @@
         <v>3</v>
       </c>
       <c r="F259">
-        <v>507.30999999999989</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+        <v>509.34</v>
+      </c>
+      <c r="G259">
+        <v>9</v>
+      </c>
+      <c r="H259">
+        <v>56.593333333333327</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B260">
         <v>2018</v>
@@ -6477,13 +8125,19 @@
         <v>4</v>
       </c>
       <c r="F260">
-        <f>3673.13-2995</f>
-        <v>678.13000000000011</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+        <f>3774.22-2995</f>
+        <v>779.2199999999998</v>
+      </c>
+      <c r="G260">
+        <v>11</v>
+      </c>
+      <c r="H260">
+        <v>343.11090909090899</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B261">
         <v>2018</v>
@@ -6498,12 +8152,18 @@
         <v>5</v>
       </c>
       <c r="F261">
-        <v>612.31999999999994</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+        <v>604.46</v>
+      </c>
+      <c r="G261">
+        <v>8</v>
+      </c>
+      <c r="H261">
+        <v>75.557500000000005</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B262">
         <v>2018</v>
@@ -6518,12 +8178,18 @@
         <v>6</v>
       </c>
       <c r="F262">
-        <v>803.1400000000001</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+        <v>802.52</v>
+      </c>
+      <c r="G262">
+        <v>14</v>
+      </c>
+      <c r="H262">
+        <v>57.322857142857139</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B263">
         <v>2018</v>
@@ -6540,10 +8206,16 @@
       <c r="F263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B264">
         <v>2018</v>
@@ -6558,12 +8230,18 @@
         <v>1</v>
       </c>
       <c r="F264">
-        <v>688.78</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454.19000000000011</v>
+      </c>
+      <c r="G264">
+        <v>13</v>
+      </c>
+      <c r="H264">
+        <v>34.937692307692309</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B265">
         <v>2018</v>
@@ -6578,12 +8256,18 @@
         <v>2</v>
       </c>
       <c r="F265">
-        <v>498.91</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452.73</v>
+      </c>
+      <c r="G265">
+        <v>6</v>
+      </c>
+      <c r="H265">
+        <v>75.454999999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B266">
         <v>2018</v>
@@ -6598,12 +8282,18 @@
         <v>3</v>
       </c>
       <c r="F266">
-        <v>945.1500000000002</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+        <v>942.16000000000008</v>
+      </c>
+      <c r="G266">
+        <v>13</v>
+      </c>
+      <c r="H266">
+        <v>72.473846153846154</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B267">
         <v>2018</v>
@@ -6618,12 +8308,18 @@
         <v>4</v>
       </c>
       <c r="F267">
-        <v>325.58999999999997</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458.76</v>
+      </c>
+      <c r="G267">
+        <v>7</v>
+      </c>
+      <c r="H267">
+        <v>65.537142857142854</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B268">
         <v>2018</v>
@@ -6638,12 +8334,18 @@
         <v>5</v>
       </c>
       <c r="F268">
-        <v>1564.85</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1374.5</v>
+      </c>
+      <c r="G268">
+        <v>17</v>
+      </c>
+      <c r="H268">
+        <v>80.85294117647058</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B269">
         <v>2018</v>
@@ -6658,13 +8360,19 @@
         <v>6</v>
       </c>
       <c r="F269">
-        <f>4692.49-2995</f>
-        <v>1697.4899999999998</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+        <f>4343.8-2995</f>
+        <v>1348.8000000000002</v>
+      </c>
+      <c r="G269">
+        <v>18</v>
+      </c>
+      <c r="H269">
+        <v>241.32222222222219</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B270">
         <v>2018</v>
@@ -6681,10 +8389,16 @@
       <c r="F270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B271">
         <v>2018</v>
@@ -6699,12 +8413,18 @@
         <v>1</v>
       </c>
       <c r="F271">
-        <v>475.39</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+        <v>463.82999999999993</v>
+      </c>
+      <c r="G271">
+        <v>7</v>
+      </c>
+      <c r="H271">
+        <v>66.261428571428567</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B272">
         <v>2018</v>
@@ -6719,12 +8439,18 @@
         <v>2</v>
       </c>
       <c r="F272">
-        <v>155.59</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+        <v>158.33000000000001</v>
+      </c>
+      <c r="G272">
+        <v>3</v>
+      </c>
+      <c r="H272">
+        <v>52.776666666666657</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B273">
         <v>2018</v>
@@ -6739,12 +8465,18 @@
         <v>3</v>
       </c>
       <c r="F273">
-        <v>812.58</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+        <v>837.0100000000001</v>
+      </c>
+      <c r="G273">
+        <v>9</v>
+      </c>
+      <c r="H273">
+        <v>93.001111111111129</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B274">
         <v>2018</v>
@@ -6759,12 +8491,18 @@
         <v>4</v>
       </c>
       <c r="F274">
-        <v>507.47</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+        <v>526.29999999999995</v>
+      </c>
+      <c r="G274">
+        <v>6</v>
+      </c>
+      <c r="H274">
+        <v>87.716666666666654</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B275">
         <v>2018</v>
@@ -6779,12 +8517,18 @@
         <v>5</v>
       </c>
       <c r="F275">
-        <v>948.77</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+        <v>934.31</v>
+      </c>
+      <c r="G275">
+        <v>10</v>
+      </c>
+      <c r="H275">
+        <v>93.430999999999997</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B276">
         <v>2018</v>
@@ -6799,12 +8543,18 @@
         <v>6</v>
       </c>
       <c r="F276">
-        <v>3849.09</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3493.05</v>
+      </c>
+      <c r="G276">
+        <v>26</v>
+      </c>
+      <c r="H276">
+        <v>134.34807692307689</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B277">
         <v>2018</v>
@@ -6821,10 +8571,16 @@
       <c r="F277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B278">
         <v>2018</v>
@@ -6839,12 +8595,18 @@
         <v>1</v>
       </c>
       <c r="F278">
-        <v>572.4</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+        <v>562.15</v>
+      </c>
+      <c r="G278">
+        <v>11</v>
+      </c>
+      <c r="H278">
+        <v>51.104545454545452</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B279">
         <v>2018</v>
@@ -6859,12 +8621,18 @@
         <v>2</v>
       </c>
       <c r="F279">
-        <v>577.52</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+        <v>541.78</v>
+      </c>
+      <c r="G279">
+        <v>6</v>
+      </c>
+      <c r="H279">
+        <v>90.296666666666667</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B280">
         <v>2018</v>
@@ -6879,12 +8647,18 @@
         <v>3</v>
       </c>
       <c r="F280">
-        <v>1938.66</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1831.37</v>
+      </c>
+      <c r="G280">
+        <v>7</v>
+      </c>
+      <c r="H280">
+        <v>261.62428571428569</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B281">
         <v>2018</v>
@@ -6899,12 +8673,18 @@
         <v>4</v>
       </c>
       <c r="F281">
-        <v>625.90000000000009</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+        <v>563.30999999999995</v>
+      </c>
+      <c r="G281">
+        <v>11</v>
+      </c>
+      <c r="H281">
+        <v>51.209999999999987</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B282">
         <v>2018</v>
@@ -6919,12 +8699,18 @@
         <v>5</v>
       </c>
       <c r="F282">
-        <v>657.38</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+        <v>578.83000000000015</v>
+      </c>
+      <c r="G282">
+        <v>6</v>
+      </c>
+      <c r="H282">
+        <v>96.471666666666692</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B283">
         <v>2018</v>
@@ -6939,12 +8725,18 @@
         <v>6</v>
       </c>
       <c r="F283">
-        <v>1345.5</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1174.8399999999999</v>
+      </c>
+      <c r="G283">
+        <v>16</v>
+      </c>
+      <c r="H283">
+        <v>73.427500000000009</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B284">
         <v>2018</v>
@@ -6961,10 +8753,16 @@
       <c r="F284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B285">
         <v>2018</v>
@@ -6979,12 +8777,18 @@
         <v>1</v>
       </c>
       <c r="F285">
-        <v>508.57999999999993</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+        <v>493.15</v>
+      </c>
+      <c r="G285">
+        <v>9</v>
+      </c>
+      <c r="H285">
+        <v>54.794444444444451</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B286">
         <v>2018</v>
@@ -6999,12 +8803,18 @@
         <v>2</v>
       </c>
       <c r="F286">
-        <v>573.55000000000018</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+        <v>556.54999999999995</v>
+      </c>
+      <c r="G286">
+        <v>15</v>
+      </c>
+      <c r="H286">
+        <v>37.103333333333332</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B287">
         <v>2018</v>
@@ -7019,12 +8829,18 @@
         <v>3</v>
       </c>
       <c r="F287">
-        <v>856.97</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+        <v>814.18000000000006</v>
+      </c>
+      <c r="G287">
+        <v>12</v>
+      </c>
+      <c r="H287">
+        <v>67.848333333333343</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B288">
         <v>2018</v>
@@ -7039,12 +8855,18 @@
         <v>4</v>
       </c>
       <c r="F288">
-        <v>1753.5</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1787.46</v>
+      </c>
+      <c r="G288">
+        <v>17</v>
+      </c>
+      <c r="H288">
+        <v>105.14470588235299</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B289">
         <v>2018</v>
@@ -7059,12 +8881,18 @@
         <v>5</v>
       </c>
       <c r="F289">
-        <v>1986.78</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1824.14</v>
+      </c>
+      <c r="G289">
+        <v>21</v>
+      </c>
+      <c r="H289">
+        <v>86.863809523809536</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B290">
         <v>2018</v>
@@ -7081,10 +8909,16 @@
       <c r="F290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B291">
         <v>2018</v>
@@ -7101,10 +8935,16 @@
       <c r="F291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B292">
         <v>2018</v>
@@ -7121,10 +8961,16 @@
       <c r="F292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B293">
         <v>2018</v>
@@ -7139,12 +8985,18 @@
         <v>2</v>
       </c>
       <c r="F293">
-        <v>715.59999999999991</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+        <v>692.07999999999993</v>
+      </c>
+      <c r="G293">
+        <v>9</v>
+      </c>
+      <c r="H293">
+        <v>76.897777777777776</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B294">
         <v>2018</v>
@@ -7159,12 +9011,18 @@
         <v>3</v>
       </c>
       <c r="F294">
-        <v>1361.56</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1065.45</v>
+      </c>
+      <c r="G294">
+        <v>8</v>
+      </c>
+      <c r="H294">
+        <v>133.18125000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B295">
         <v>2018</v>
@@ -7179,12 +9037,18 @@
         <v>4</v>
       </c>
       <c r="F295">
-        <v>1278.26</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1057.9100000000001</v>
+      </c>
+      <c r="G295">
+        <v>12</v>
+      </c>
+      <c r="H295">
+        <v>88.159166666666678</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B296">
         <v>2018</v>
@@ -7199,7 +9063,819 @@
         <v>5</v>
       </c>
       <c r="F296">
-        <v>0</v>
+        <v>1448.85</v>
+      </c>
+      <c r="G296">
+        <v>14</v>
+      </c>
+      <c r="H296">
+        <v>103.4892857142857</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>303</v>
+      </c>
+      <c r="B297">
+        <v>2018</v>
+      </c>
+      <c r="C297">
+        <v>9</v>
+      </c>
+      <c r="D297">
+        <v>36</v>
+      </c>
+      <c r="E297">
+        <v>6</v>
+      </c>
+      <c r="F297">
+        <v>1452.4</v>
+      </c>
+      <c r="G297">
+        <v>18</v>
+      </c>
+      <c r="H297">
+        <v>80.688888888888883</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>304</v>
+      </c>
+      <c r="B298">
+        <v>2018</v>
+      </c>
+      <c r="C298">
+        <v>9</v>
+      </c>
+      <c r="D298">
+        <v>36</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>363</v>
+      </c>
+      <c r="G298">
+        <v>2</v>
+      </c>
+      <c r="H298">
+        <v>181.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>305</v>
+      </c>
+      <c r="B299">
+        <v>2018</v>
+      </c>
+      <c r="C299">
+        <v>9</v>
+      </c>
+      <c r="D299">
+        <v>37</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>805.97</v>
+      </c>
+      <c r="G299">
+        <v>7</v>
+      </c>
+      <c r="H299">
+        <v>115.1385714285714</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>306</v>
+      </c>
+      <c r="B300">
+        <v>2018</v>
+      </c>
+      <c r="C300">
+        <v>9</v>
+      </c>
+      <c r="D300">
+        <v>37</v>
+      </c>
+      <c r="E300">
+        <v>2</v>
+      </c>
+      <c r="F300">
+        <v>688.63000000000011</v>
+      </c>
+      <c r="G300">
+        <v>8</v>
+      </c>
+      <c r="H300">
+        <v>86.078750000000014</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>307</v>
+      </c>
+      <c r="B301">
+        <v>2018</v>
+      </c>
+      <c r="C301">
+        <v>9</v>
+      </c>
+      <c r="D301">
+        <v>37</v>
+      </c>
+      <c r="E301">
+        <v>3</v>
+      </c>
+      <c r="F301">
+        <v>912.07</v>
+      </c>
+      <c r="G301">
+        <v>8</v>
+      </c>
+      <c r="H301">
+        <v>114.00875000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>308</v>
+      </c>
+      <c r="B302">
+        <v>2018</v>
+      </c>
+      <c r="C302">
+        <v>9</v>
+      </c>
+      <c r="D302">
+        <v>37</v>
+      </c>
+      <c r="E302">
+        <v>4</v>
+      </c>
+      <c r="F302">
+        <v>553.07999999999993</v>
+      </c>
+      <c r="G302">
+        <v>11</v>
+      </c>
+      <c r="H302">
+        <v>50.279999999999987</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>309</v>
+      </c>
+      <c r="B303">
+        <v>2018</v>
+      </c>
+      <c r="C303">
+        <v>9</v>
+      </c>
+      <c r="D303">
+        <v>37</v>
+      </c>
+      <c r="E303">
+        <v>5</v>
+      </c>
+      <c r="F303">
+        <v>556.92999999999995</v>
+      </c>
+      <c r="G303">
+        <v>12</v>
+      </c>
+      <c r="H303">
+        <v>46.410833333333329</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>310</v>
+      </c>
+      <c r="B304">
+        <v>2018</v>
+      </c>
+      <c r="C304">
+        <v>9</v>
+      </c>
+      <c r="D304">
+        <v>37</v>
+      </c>
+      <c r="E304">
+        <v>6</v>
+      </c>
+      <c r="F304">
+        <v>2096.3000000000002</v>
+      </c>
+      <c r="G304">
+        <v>23</v>
+      </c>
+      <c r="H304">
+        <v>91.143478260869571</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>311</v>
+      </c>
+      <c r="B305">
+        <v>2018</v>
+      </c>
+      <c r="C305">
+        <v>9</v>
+      </c>
+      <c r="D305">
+        <v>37</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>248.69</v>
+      </c>
+      <c r="G305">
+        <v>3</v>
+      </c>
+      <c r="H305">
+        <v>82.896666666666661</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>312</v>
+      </c>
+      <c r="B306">
+        <v>2018</v>
+      </c>
+      <c r="C306">
+        <v>9</v>
+      </c>
+      <c r="D306">
+        <v>38</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
+      </c>
+      <c r="F306">
+        <v>596.11</v>
+      </c>
+      <c r="G306">
+        <v>8</v>
+      </c>
+      <c r="H306">
+        <v>74.513750000000002</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>313</v>
+      </c>
+      <c r="B307">
+        <v>2018</v>
+      </c>
+      <c r="C307">
+        <v>9</v>
+      </c>
+      <c r="D307">
+        <v>38</v>
+      </c>
+      <c r="E307">
+        <v>2</v>
+      </c>
+      <c r="F307">
+        <v>843.27</v>
+      </c>
+      <c r="G307">
+        <v>11</v>
+      </c>
+      <c r="H307">
+        <v>76.660909090909087</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>314</v>
+      </c>
+      <c r="B308">
+        <v>2018</v>
+      </c>
+      <c r="C308">
+        <v>9</v>
+      </c>
+      <c r="D308">
+        <v>38</v>
+      </c>
+      <c r="E308">
+        <v>3</v>
+      </c>
+      <c r="F308">
+        <v>992.96</v>
+      </c>
+      <c r="G308">
+        <v>6</v>
+      </c>
+      <c r="H308">
+        <v>165.49333333333331</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>315</v>
+      </c>
+      <c r="B309">
+        <v>2018</v>
+      </c>
+      <c r="C309">
+        <v>9</v>
+      </c>
+      <c r="D309">
+        <v>38</v>
+      </c>
+      <c r="E309">
+        <v>4</v>
+      </c>
+      <c r="F309">
+        <v>853.17000000000007</v>
+      </c>
+      <c r="G309">
+        <v>9</v>
+      </c>
+      <c r="H309">
+        <v>94.796666666666681</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>316</v>
+      </c>
+      <c r="B310">
+        <v>2018</v>
+      </c>
+      <c r="C310">
+        <v>9</v>
+      </c>
+      <c r="D310">
+        <v>38</v>
+      </c>
+      <c r="E310">
+        <v>5</v>
+      </c>
+      <c r="F310">
+        <v>526.96</v>
+      </c>
+      <c r="G310">
+        <v>9</v>
+      </c>
+      <c r="H310">
+        <v>58.551111111111112</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>317</v>
+      </c>
+      <c r="B311">
+        <v>2018</v>
+      </c>
+      <c r="C311">
+        <v>9</v>
+      </c>
+      <c r="D311">
+        <v>38</v>
+      </c>
+      <c r="E311">
+        <v>6</v>
+      </c>
+      <c r="F311">
+        <v>7478.2399999999989</v>
+      </c>
+      <c r="G311">
+        <v>27</v>
+      </c>
+      <c r="H311">
+        <v>276.9718518518518</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>318</v>
+      </c>
+      <c r="B312">
+        <v>2018</v>
+      </c>
+      <c r="C312">
+        <v>9</v>
+      </c>
+      <c r="D312">
+        <v>38</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>186.35</v>
+      </c>
+      <c r="G312">
+        <v>2</v>
+      </c>
+      <c r="H312">
+        <v>93.174999999999997</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>319</v>
+      </c>
+      <c r="B313">
+        <v>2018</v>
+      </c>
+      <c r="C313">
+        <v>9</v>
+      </c>
+      <c r="D313">
+        <v>39</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+      <c r="F313">
+        <v>198.02</v>
+      </c>
+      <c r="G313">
+        <v>4</v>
+      </c>
+      <c r="H313">
+        <v>49.505000000000003</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>320</v>
+      </c>
+      <c r="B314">
+        <v>2018</v>
+      </c>
+      <c r="C314">
+        <v>9</v>
+      </c>
+      <c r="D314">
+        <v>39</v>
+      </c>
+      <c r="E314">
+        <v>2</v>
+      </c>
+      <c r="F314">
+        <v>883.97</v>
+      </c>
+      <c r="G314">
+        <v>10</v>
+      </c>
+      <c r="H314">
+        <v>88.397000000000006</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>321</v>
+      </c>
+      <c r="B315">
+        <v>2018</v>
+      </c>
+      <c r="C315">
+        <v>9</v>
+      </c>
+      <c r="D315">
+        <v>39</v>
+      </c>
+      <c r="E315">
+        <v>3</v>
+      </c>
+      <c r="F315">
+        <v>608.01</v>
+      </c>
+      <c r="G315">
+        <v>8</v>
+      </c>
+      <c r="H315">
+        <v>76.001249999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>322</v>
+      </c>
+      <c r="B316">
+        <v>2018</v>
+      </c>
+      <c r="C316">
+        <v>9</v>
+      </c>
+      <c r="D316">
+        <v>39</v>
+      </c>
+      <c r="E316">
+        <v>4</v>
+      </c>
+      <c r="F316">
+        <v>608.0100000000001</v>
+      </c>
+      <c r="G316">
+        <v>7</v>
+      </c>
+      <c r="H316">
+        <v>86.858571428571437</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>323</v>
+      </c>
+      <c r="B317">
+        <v>2018</v>
+      </c>
+      <c r="C317">
+        <v>9</v>
+      </c>
+      <c r="D317">
+        <v>39</v>
+      </c>
+      <c r="E317">
+        <v>5</v>
+      </c>
+      <c r="F317">
+        <v>1103.97</v>
+      </c>
+      <c r="G317">
+        <v>14</v>
+      </c>
+      <c r="H317">
+        <v>78.85499999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>324</v>
+      </c>
+      <c r="B318">
+        <v>2018</v>
+      </c>
+      <c r="C318">
+        <v>9</v>
+      </c>
+      <c r="D318">
+        <v>39</v>
+      </c>
+      <c r="E318">
+        <v>6</v>
+      </c>
+      <c r="F318">
+        <v>2488.69</v>
+      </c>
+      <c r="G318">
+        <v>19</v>
+      </c>
+      <c r="H318">
+        <v>130.98368421052629</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>325</v>
+      </c>
+      <c r="B319">
+        <v>2018</v>
+      </c>
+      <c r="C319">
+        <v>9</v>
+      </c>
+      <c r="D319">
+        <v>39</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>333.7</v>
+      </c>
+      <c r="G319">
+        <v>5</v>
+      </c>
+      <c r="H319">
+        <v>66.739999999999995</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>326</v>
+      </c>
+      <c r="B320">
+        <v>2018</v>
+      </c>
+      <c r="C320">
+        <v>10</v>
+      </c>
+      <c r="D320">
+        <v>40</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+      <c r="F320">
+        <v>405.25</v>
+      </c>
+      <c r="G320">
+        <v>7</v>
+      </c>
+      <c r="H320">
+        <v>57.892857142857153</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>327</v>
+      </c>
+      <c r="B321">
+        <v>2018</v>
+      </c>
+      <c r="C321">
+        <v>10</v>
+      </c>
+      <c r="D321">
+        <v>40</v>
+      </c>
+      <c r="E321">
+        <v>2</v>
+      </c>
+      <c r="F321">
+        <v>812.18000000000006</v>
+      </c>
+      <c r="G321">
+        <v>6</v>
+      </c>
+      <c r="H321">
+        <v>135.36333333333329</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>328</v>
+      </c>
+      <c r="B322">
+        <v>2018</v>
+      </c>
+      <c r="C322">
+        <v>10</v>
+      </c>
+      <c r="D322">
+        <v>40</v>
+      </c>
+      <c r="E322">
+        <v>3</v>
+      </c>
+      <c r="F322">
+        <v>636.13</v>
+      </c>
+      <c r="G322">
+        <v>11</v>
+      </c>
+      <c r="H322">
+        <v>57.83</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>329</v>
+      </c>
+      <c r="B323">
+        <v>2018</v>
+      </c>
+      <c r="C323">
+        <v>10</v>
+      </c>
+      <c r="D323">
+        <v>40</v>
+      </c>
+      <c r="E323">
+        <v>4</v>
+      </c>
+      <c r="F323">
+        <v>558.15</v>
+      </c>
+      <c r="G323">
+        <v>5</v>
+      </c>
+      <c r="H323">
+        <v>111.63</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>330</v>
+      </c>
+      <c r="B324">
+        <v>2018</v>
+      </c>
+      <c r="C324">
+        <v>10</v>
+      </c>
+      <c r="D324">
+        <v>40</v>
+      </c>
+      <c r="E324">
+        <v>5</v>
+      </c>
+      <c r="F324">
+        <v>1070.58</v>
+      </c>
+      <c r="G324">
+        <v>16</v>
+      </c>
+      <c r="H324">
+        <v>66.91125000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>331</v>
+      </c>
+      <c r="B325">
+        <v>2018</v>
+      </c>
+      <c r="C325">
+        <v>10</v>
+      </c>
+      <c r="D325">
+        <v>40</v>
+      </c>
+      <c r="E325">
+        <v>6</v>
+      </c>
+      <c r="F325">
+        <v>2246.670000000001</v>
+      </c>
+      <c r="G325">
+        <v>24</v>
+      </c>
+      <c r="H325">
+        <v>93.611250000000027</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>332</v>
+      </c>
+      <c r="B326">
+        <v>2018</v>
+      </c>
+      <c r="C326">
+        <v>10</v>
+      </c>
+      <c r="D326">
+        <v>40</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>117.89</v>
+      </c>
+      <c r="G326">
+        <v>3</v>
+      </c>
+      <c r="H326">
+        <v>39.296666666666667</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>333</v>
+      </c>
+      <c r="B327">
+        <v>2018</v>
+      </c>
+      <c r="C327">
+        <v>10</v>
+      </c>
+      <c r="D327">
+        <v>41</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+      <c r="F327">
+        <v>977.35</v>
+      </c>
+      <c r="G327">
+        <v>11</v>
+      </c>
+      <c r="H327">
+        <v>88.850000000000009</v>
       </c>
     </row>
   </sheetData>
